--- a/Abaqus/USDLFD 定义.xlsx
+++ b/Abaqus/USDLFD 定义.xlsx
@@ -1,71 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Github\Fortarn\Abaqus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107D3439-62ED-481C-A875-C20E199AFB88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF83551-B440-4B91-9472-0178C593687B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UMAT 定义" sheetId="1" r:id="rId1"/>
+    <sheet name="USDFLD两个关键变量" sheetId="2" r:id="rId2"/>
+    <sheet name="USDFLD 子程序中 GETVRM 程序说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
-  <si>
-    <t>STRESS (NTENS)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前积分点的坐标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDSDDE ( NTENS, NTENS)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATEV (NSTATEV)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user coding to define DDSDDE, STRESS, STATEV, SSE, SPD, SCD
-and, if necessary, RPL, DDSDDT, DRPLDE, DRPLDT, PNEWDT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSE,SPD,SCD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>分别定义每一增量步的弹性应变能，塑性耗散和蠕变耗散。它们对计算结果没有影响，仅仅作为能量输出</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if necessary</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRAN (NTENS)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSTRAN (NTENS)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接分量有NDI个，剪切分量有NSHR个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>DTIME</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -99,14 +56,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>DTEMP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>NSTATV</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -115,38 +64,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>NPROPS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREDEF(1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DPRED(1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROPS(NPROPS)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>COORDS(3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROT(3,3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>增量步的时间增量 dt ；已知</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>对 Finite strain 问题，应变应该排除旋转部分，该矩阵提供了旋转矩阵，详见下面的解释；已知</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>NOEL</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -175,283 +96,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>积分点的编号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分点所在单元的编号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INCREMENT 值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>传到用户子程序当前的 STEP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用来控制时间步的变化。如果设置为小于 1 的数，则程序放弃当前计算，并用新的时间增量 DTIME X PNEWDT作为新的时间增量计算；
-这对时间相关的材料如聚合物等有用；如果设为大余 1 的数，则下一个增量步加大 DTIME 为 DTIME X PNEWDT。可以更新。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料常数数组，如模量啊，粘度系数等等；材料参数的个数，等于关键词“ *USER MATERIAL”中“ CONSTANTS”常数设定的值；
-矩阵中元素的数值对应于关键词“ USER MATERIAL”下面的数据行。作为已知量传入；已知</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMNAME(len=80)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFGRD0(3,3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFGRD1(3,3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>已知的</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>在模型中，用户输入的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元积分点上状态变量的个数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户自定义材料模型的参数个数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前应变数组ε n ，已知    增量步开始时的应变分量，包含塑性和弹性应变</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>应变增量 dε n+1，已知     应变增量数组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>TIME(1)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>当前增量步开始时的分析步时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前增量步开始时的总时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSTEP(1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPL, DDSDDT, DRPLDE, DRPLDT, PNEWDT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSTATV, NPROPS, PROPS 需要再cae或input中指定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析步号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析步类型编号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>为1表示考虑几何非线性，否则为0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>为1表示考虑线性摄动步，否则为0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSTEP(2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSTEP(3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSTEP(4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户自定义的材料名，靠左对齐，为避免干扰，尽量避免采用ABQ开头。
-在子程序中CMNAME课作为标识来区分多种自定义的材料，调用不同的代码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">大小为 NTENS×NTENS 的 Jacobian 矩阵( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>∂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Δσ / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>∂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Δε )， DDSDDE(I,J) 定义了第 J 个应变分量的微小变化对第 I 个应力分量带来的变化。
-通常 Jacobian 矩阵是一个对称矩阵，除非在“*USER MATERIAL”语句中加入了“UNSYMM”参数；需要更新
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>只要求解收敛，雅克比矩阵的具体数值只会影响收敛速度，而对计算结果没有影响</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>关键给出的 需要更新写入的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>应力张量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数组，对应 NDI 个直接分量和 NSHR 个剪切分量。在增量步的开始，应力张量矩阵σ n 中的数值通过 UMAT 和主程序之间的接口传递到 UMAT 中，在增量步的结束 UMAT 将对应力张量矩阵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">为σ n+1 。
-对于包含刚体转动的有限应变问题，一个增量步调用 UMAT 之前就已经对应力张量进行了刚体转动，因此 UMAT 中只需处理应力张量的共旋部分。 UMAT 中应力张量的度量为柯西（真实）应力。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>应力张量，增量步开始时由ABAQUS传入，需要再UMAT中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>为增量步结束的值。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-岩土工程中通常需要设置初始应力，所设置的初始应力场也会通过该数组传入UMAT子程序</t>
-    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -471,8 +124,21 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
+    <t>USDFLD 子程序用于自定义材料状态变量，状态变量包括场变量，与求解过程相关的状态变量，及重新定义材料点的状态变量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USDFLD 子程序可用来改变材料点上的场变量，从而改变材料的属性。可以在计算过程中将时间或材料点上获得的变量定义为场变量，
+且场变量可以被引入到程序中，并与解相关的材料属性之间建立函数关系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>必须调用应用程序</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -480,7 +146,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>状态变量</t>
+      <t xml:space="preserve"> GETVRM </t>
     </r>
     <r>
       <rPr>
@@ -491,10 +157,81 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>矩阵，用来保存</t>
-    </r>
-    <r>
-      <rPr>
+      <t>来得到材料点数据</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当前增量步开始时的分析步的时间值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前增量步开始时的总时间值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMNAME</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORNAME</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户定义的局部方向的名字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCREMENT 值，增量步的数目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>传到用户子程序当前的 STEP，分析步的数目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当前层里的截面点数目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>层数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分点数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFIELD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>场变量的数目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COORD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料点的坐标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1） FIELD 场变量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FIELD 它是一个包含了在当前材料点上的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -502,7 +239,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>用户自己定义</t>
+      <t>场变量的数组</t>
     </r>
     <r>
       <rPr>
@@ -513,12 +250,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>的一些变量，如累计塑性应变，粘弹性应变等等。增量步开始时作为已知量传入，增量步结束应该更新
-求解过程中的状态变量的存贮向量。在该增量步开始时，用来传递状态变量，除非进行了更新（采用USDEFL或UEXPAN）。
-在增量步结束时，STATEV更新为结束时刻的状态变量值。</t>
-    </r>
-    <r>
-      <rPr>
+      <t>。
+当初时条件，用户预定义场变量，或者用户子程序 UFIELD 被指定了以后，这些值（以节点的插值方式给出）在当前增量步的结尾时被传入。
+更新后的值被用于计算材料属性的值（这些材料属性是与场变量有关的）并且可以被传给了其他的用户子程序。</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2） STATEV 状态变量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATEV 它是一个包含与解有关的状态变量的数组。
+这些值在增量步的开始传送给对应的变量。在所有的情况中 STATEV 都能被更新，并且更新后的值可
+以被传给了其他的用户子程序(CREEP, HETVAL, UEXPAN, UMAT, UMATHT,and UTRS)。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USDFLD 子程序中 GETVRM 程序说明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 程序说明GETVRM 程序用途是得到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -526,7 +284,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>STATEV的维数（NSTATV）由*DEPVAR决定</t>
+      <t>材料点的信息</t>
     </r>
     <r>
       <rPr>
@@ -537,8 +295,340 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>。</t>
-    </r>
+      <t>(如应力，应变值，等等）</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> VAR，JMAC, JMATYP, MATLAYO, LACCFLA 为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输入变量</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CALL GETVRM (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'VAR'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARRAY, JARRAY, FLGRAY, JRCD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JMAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JMATYP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MATLAYO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LACCFLA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ARRAY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实数数列，包含了输出变量的单个分量</t>
+  </si>
+  <si>
+    <t>JARRAY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>整形数列，包含了输出变量的单个分量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLGRAY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号型数列，包含了与单个分量有关的符号。这些符号将包括 YES, NO, or N/A;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRCD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>只返回 0 或 1 的变量，其中 0 代表没有错误， 1 代表输出请求有错误或所有的输出请求的分量都是零</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMAC， JMATYP， MATLAYO， LACCFLA 都是变量，
+它们必须传递给应用程序 GETVRM 以得到一个输出变量，
+这个输出变量是通过 GETVRM 应用程序得到。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在 GETVRM 程序中，只有对于结果文件有效的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输出变量关键字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>才是可用的。
+通常来说，如果一个和集体输出变量有关的关键字，而不是一个单个分量，才可以和 GETVRM 一起使用。
+例如，应力张量 S 可以被使用，但是它的任何一个分量，例如 S11 不能被使用。</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>从变量 VRM 那里，可以得到 ARRAY, JARRAY, FLGRAY 的值。
+如果一个数列的分量并不适合于一个给定的输出请求（VRM），它的返回值将是初值，
+对于 ARRAY 是 0.0，对于 JARRAY 是 0，对于 FLGRAY 是 N/A。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARRAY,JARRAY, FLGRAY, JRCD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输出变量</t>
+    </r>
+  </si>
+  <si>
+    <t>错误标识符 JRCD=1 意味着在任何时候出现了一个无法识别的输出请求（VRM），
+也就是这个输出请求是无效的（例如当使用薄壳理论时，输出请求是横向剪切应力（因为在这个理
+论中，它不存在）），或者所有的输出分量请求都是零；否则， JRCD=0。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>场变量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态变量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATEV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用的时间增量长度与已经使用的（旧的）时间增量长度的比值，
+这个变量允许你提供对自动时间增量算法的输入（如果你选择了自动时间增量）。用它来控制最大时间增量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIRECT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>由材料的主方向和整体坐标方向之间的方向余弦构成的矩阵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料方向和单元基方向之间的方向余弦组成的矩阵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征单元长度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>场变量个数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态变量个数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户自定义的材料名，靠左对齐，为避免干扰，尽量避免采用ABQ开头。
+在子程序中CMNAME可作为标识来区分多种自定义的材料，调用不同的代码</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +636,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,10 +801,20 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -723,14 +823,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
@@ -738,8 +831,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,24 +1034,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1093,6 +1182,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1222,7 +1333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,37 +1355,49 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1632,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1646,318 +1769,392 @@
     <col min="4" max="4" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="B25" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="B26" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14" t="s">
+    <row r="28" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="29" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
+      <c r="B29" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:D4"/>
-  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323EB1A8-7C83-4838-B2ED-A8112EB6B0ED}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.25" customWidth="1"/>
+    <col min="2" max="2" width="122.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700BBAC8-846A-497C-BD81-4E054C2D56F3}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.75" style="15"/>
+    <col min="2" max="2" width="112.75" style="13" customWidth="1"/>
+    <col min="3" max="3" width="83.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Abaqus/USDLFD 定义.xlsx
+++ b/Abaqus/USDLFD 定义.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Github\Fortarn\Abaqus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF83551-B440-4B91-9472-0178C593687B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B341F8-5889-4E64-95B8-4A77C12770A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="19170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UMAT 定义" sheetId="1" r:id="rId1"/>
@@ -1757,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2064,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700BBAC8-846A-497C-BD81-4E054C2D56F3}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/Abaqus/USDLFD 定义.xlsx
+++ b/Abaqus/USDLFD 定义.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Github\Fortarn\Abaqus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B341F8-5889-4E64-95B8-4A77C12770A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D150F8E7-2299-4079-9C8F-BD0A1671A0EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="19170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UMAT 定义" sheetId="1" r:id="rId1"/>
@@ -1757,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
